--- a/버그리포트/리볼트데이 버그 리포트19-02-04(제갈우진).xlsx
+++ b/버그리포트/리볼트데이 버그 리포트19-02-04(제갈우진).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\버그리포트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23F57CBA-8B1D-48AE-95D2-0C4B155B0775}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979167D2-E7B3-40DD-8AFA-224BFD2F5D94}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" xr2:uid="{42A544F5-D706-4521-BB18-E0EA34A24A24}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>전 버전 기준 버그수정 완료본으로 테스트함</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>대사</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>추리 단서 버그</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -93,23 +89,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>EventID 26번 - CG 14번 돌입전 게임 멈춤(CSV 문제로 추정)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>추리 BG 겹침</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2번째 추리와 3번째 추리 이미지가 겹침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>행동력 버그</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>행동력인데도 조사 가능(행동력이 0이하로 떨어짐)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -351,13 +335,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>213361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>205741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -872,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE642CDD-ABAF-4157-870C-CBA1B90C385A}">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -956,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>9</v>
@@ -971,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
@@ -982,44 +966,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="2">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/버그리포트/리볼트데이 버그 리포트19-02-04(제갈우진).xlsx
+++ b/버그리포트/리볼트데이 버그 리포트19-02-04(제갈우진).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\버그리포트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979167D2-E7B3-40DD-8AFA-224BFD2F5D94}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFBD93E-EB06-45F4-8509-DDD4CF76D53E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" xr2:uid="{42A544F5-D706-4521-BB18-E0EA34A24A24}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>전 버전 기준 버그수정 완료본으로 테스트함</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -61,39 +61,67 @@
     <t>리볼트데이 버그 리포트</t>
   </si>
   <si>
-    <t>일시 2019/02/04 00:51</t>
+    <t>추리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 단서 숫자가 계속 추가됨(왼쪽 그림 참고)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사건 해결 후 월드맵으로 돌아오면 소지금이 초기 자금으로 롤백됨(100원)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추리 단서 버그</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소지금 초기화 버그</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추리 BG 겹침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번째 추리와 3번째 추리 이미지가 겹침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시 2019/02/04 10:35</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>추리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택 단서 숫자가 계속 추가됨(왼쪽 그림 참고)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>월드맵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사건 해결 후 월드맵으로 돌아오면 소지금이 초기 자금으로 롤백됨(100원)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>추리 단서 버그</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>소지금 초기화 버그</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>추리 BG 겹침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2번째 추리와 3번째 추리 이미지가 겹침</t>
+    <t>대화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneID30 대화가 출력되지 않고 바로 31번으로 넘어감.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>씬 생략</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneID43 12번 줄에서 프리징(박우주 표정(Park04)이 문제인 것으로 사료)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화 프리징</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 속성 버그</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비를 착용하면 해당 장비가 어느 속성인지 상관없이 속성에서 이기면 속성 다이스에 추가 주사위 눈</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -245,23 +273,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>188119</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>120777</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>67937</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>425577</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>60317</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
+        <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEFC4952-0908-49D3-AC6A-F7223987A1CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F6A624-08C5-4B68-B67B-317A560F4668}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -277,276 +305,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10180320" y="1734979"/>
-          <a:ext cx="5340477" cy="3004018"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>274321</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>205741</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>655321</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A528FAAC-AD56-4DB6-A704-190883B83AC0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15674341" y="1752601"/>
-          <a:ext cx="5074920" cy="2854642"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>213361</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>205741</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA34388-2446-4FA1-A563-170270ABD31E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10058400" y="4884421"/>
-          <a:ext cx="5486400" cy="3086100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>425577</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>60317</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08E459D-6AD5-4CC6-9BCC-11330DD0462A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1341120" y="883920"/>
-          <a:ext cx="9142857" cy="5142857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>425577</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>60317</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A7E90E0-1411-430C-B3D6-3E472AFC4772}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1341120" y="6187440"/>
-          <a:ext cx="9142857" cy="5142857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>425577</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>60317</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A6A151-3441-4FD8-96C0-037B5142AC98}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1341120" y="11490960"/>
-          <a:ext cx="9142857" cy="5142857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>425577</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>60317</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91ED6DF2-E846-4207-A848-2E5A25D03593}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1341120" y="16794480"/>
+          <a:off x="1341120" y="441960"/>
           <a:ext cx="9142857" cy="5142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -856,17 +615,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE642CDD-ABAF-4157-870C-CBA1B90C385A}">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -878,7 +637,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -940,13 +699,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="5"/>
     </row>
@@ -955,13 +714,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -969,20 +728,61 @@
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B13" s="2">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B14" s="2">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B15" s="2">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -990,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509122D7-9283-44E1-92FE-C7E1A43E85FF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/버그리포트/리볼트데이 버그 리포트19-02-04(제갈우진).xlsx
+++ b/버그리포트/리볼트데이 버그 리포트19-02-04(제갈우진).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\버그리포트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFBD93E-EB06-45F4-8509-DDD4CF76D53E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C211EC-F143-42B0-B958-3FA2341A1A9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" xr2:uid="{42A544F5-D706-4521-BB18-E0EA34A24A24}"/>
   </bookViews>
@@ -32,115 +32,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>전 버전 기준 버그수정 완료본으로 테스트함</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>이름</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>내용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>위치</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>결과</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>리볼트데이 버그 리포트</t>
   </si>
   <si>
-    <t>추리</t>
+    <t>일시 2019/02/04 10:35</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>선택 단서 숫자가 계속 추가됨(왼쪽 그림 참고)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>월드맵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사건 해결 후 월드맵으로 돌아오면 소지금이 초기 자금으로 롤백됨(100원)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>추리 단서 버그</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>소지금 초기화 버그</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>추리 BG 겹침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2번째 추리와 3번째 추리 이미지가 겹침</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>일시 2019/02/04 10:35</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>대화</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SceneID30 대화가 출력되지 않고 바로 31번으로 넘어감.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>씬 생략</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SceneID43 12번 줄에서 프리징(박우주 표정(Park04)이 문제인 것으로 사료)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>대화 프리징</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>무기 속성 버그</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>장비를 착용하면 해당 장비가 어느 속성인지 상관없이 속성에서 이기면 속성 다이스에 추가 주사위 눈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사건 무중단 버그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneID29 부터 사건 씬이 중단되지 않고 연속으로 출력됨.(중간에 월드맵으로 돌아오지 않음)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -178,17 +150,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -220,18 +187,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -241,19 +205,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="셀 확인" xfId="2" builtinId="23"/>
-    <cellStyle name="좋음" xfId="1" builtinId="26"/>
+  <cellStyles count="2">
+    <cellStyle name="셀 확인" xfId="1" builtinId="23"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -615,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE642CDD-ABAF-4157-870C-CBA1B90C385A}">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -637,7 +597,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -694,20 +654,18 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
       <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" s="2">
@@ -717,15 +675,15 @@
         <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
@@ -734,15 +692,15 @@
         <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>17</v>
@@ -751,36 +709,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="2">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="2">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -796,7 +726,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
